--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/class trial/q8_leftGrid.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/class trial/q8_leftGrid.xlsx
@@ -726,13 +726,13 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.140625" customWidth="1"/>
-    <col min="5" max="5" width="3.42578125" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" customWidth="1"/>
+    <col min="5" max="5" width="1" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" customWidth="1"/>
     <col min="7" max="7" width="9.85546875" customWidth="1"/>
   </cols>
@@ -774,7 +774,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1">
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="A4" s="4"/>
       <c r="B4" s="10" t="s">
         <v>5</v>
@@ -787,7 +787,7 @@
       </c>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1">
+    <row r="5" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="15" t="s">
         <v>6</v>
@@ -800,7 +800,7 @@
       </c>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1">
+    <row r="6" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="15" t="s">
         <v>7</v>
@@ -813,7 +813,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1">
+    <row r="7" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="15" t="s">
         <v>8</v>
@@ -826,7 +826,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1">
+    <row r="8" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="15" t="s">
         <v>9</v>
@@ -837,7 +837,7 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1">
+    <row r="9" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="15" t="s">
         <v>10</v>
@@ -850,7 +850,7 @@
       </c>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1">
+    <row r="10" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="15" t="s">
         <v>11</v>
@@ -863,7 +863,7 @@
         <v>3750</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1">
+    <row r="11" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="15" t="s">
         <v>12</v>
@@ -876,7 +876,7 @@
       </c>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1">
+    <row r="12" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="15" t="s">
         <v>13</v>
@@ -889,7 +889,7 @@
       </c>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1">
+    <row r="13" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="15" t="s">
         <v>14</v>
@@ -902,7 +902,7 @@
       </c>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1">
+    <row r="14" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="A14" s="6"/>
       <c r="B14" s="15" t="s">
         <v>15</v>
@@ -915,7 +915,7 @@
       </c>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1">
+    <row r="15" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="A15" s="6"/>
       <c r="B15" s="8" t="s">
         <v>16</v>
